--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_GPSGlobal.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -247,6 +247,96 @@
   </si>
   <si>
     <t>TG102</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Lock: 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>MCH,LK,NCFW</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>112.213.085.066,09008</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thiết bị khởi động chậm</t>
+  </si>
+  <si>
+    <t>Thay thạch anh</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001269068388</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00041.250815</t>
   </si>
 </sst>
 </file>
@@ -652,7 +742,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,21 +779,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1120,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -1111,58 +1201,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1187,23 +1277,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,19 +1315,37 @@
         <v>66</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1268,7 +1376,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1297,7 +1405,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1434,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1355,7 +1463,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1384,7 +1492,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1413,7 +1521,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1444,7 +1552,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1581,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1502,7 +1610,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1639,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1650,7 +1758,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2119,7 +2227,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2183,7 +2291,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2762,13 +2870,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2780,6 +2881,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2790,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2823,43 +2931,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -2904,58 +3012,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -2980,23 +3088,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3013,24 +3121,44 @@
       <c r="E6" s="39">
         <v>866192037815832</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>83</v>
+      </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="40"/>
+      <c r="J6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3061,7 +3189,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3090,7 +3218,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3119,7 +3247,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3148,7 +3276,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3305,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3206,7 +3334,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3237,7 +3365,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3266,7 +3394,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3295,7 +3423,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3324,7 +3452,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3507,7 +3635,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3784,7 +3912,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -3816,7 +3944,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -3912,7 +4040,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -3976,7 +4104,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4555,13 +4683,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4573,6 +4694,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4584,7 +4712,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4616,43 +4744,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -4697,58 +4825,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -4773,23 +4901,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4811,19 +4939,33 @@
         <v>61</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="58"/>
+      <c r="I6" s="58" t="s">
+        <v>71</v>
+      </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="M6" s="40"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4850,19 +4992,35 @@
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>88</v>
+      </c>
       <c r="L7" s="65"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4887,19 +5045,37 @@
         <v>61</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4924,19 +5100,35 @@
         <v>61</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4961,19 +5153,37 @@
         <v>61</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4998,19 +5208,35 @@
         <v>61</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="51">
+        <v>275000</v>
+      </c>
       <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5039,7 +5265,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5070,7 +5296,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5099,7 +5325,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5128,7 +5354,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5157,7 +5383,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5276,7 +5502,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5308,7 +5534,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5489,7 +5715,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -5649,7 +5875,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -5745,7 +5971,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5777,7 +6003,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -5809,7 +6035,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6162,7 +6388,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -6388,13 +6614,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6406,6 +6625,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6416,8 +6642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6449,43 +6675,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="55"/>
@@ -6530,58 +6756,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -6606,23 +6832,23 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6643,20 +6869,36 @@
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>96</v>
+      </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="J6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="L6" s="65"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6683,19 +6925,35 @@
         <v>61</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="40"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="40"/>
+      <c r="K7" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6720,19 +6978,35 @@
         <v>61</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="I8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="L8" s="65"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6761,7 +7035,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6790,7 +7064,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6819,7 +7093,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6848,7 +7122,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6879,7 +7153,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6908,7 +7182,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6937,7 +7211,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6966,7 +7240,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7085,7 +7359,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7117,7 +7391,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7426,7 +7700,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7458,7 +7732,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -7554,7 +7828,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7618,7 +7892,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8197,13 +8471,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8215,6 +8482,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8258,43 +8532,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8339,58 +8613,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -8415,23 +8689,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8457,7 +8731,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8488,7 +8762,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8517,7 +8791,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8546,7 +8820,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8575,7 +8849,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8604,7 +8878,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8633,7 +8907,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8664,7 +8938,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8693,7 +8967,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8722,7 +8996,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8751,7 +9025,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9982,6 +10256,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9993,13 +10274,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -736,7 +736,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,21 +773,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -1195,58 +1195,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1271,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,9 @@
       <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36">
+        <v>44359</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1339,7 +1341,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1370,7 +1372,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1399,7 +1401,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1457,7 +1459,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1486,7 +1488,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1515,7 +1517,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1546,7 +1548,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1575,7 +1577,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1604,7 +1606,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1635,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2864,13 +2866,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2882,6 +2877,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2892,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2925,43 +2927,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -3006,58 +3008,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3082,23 +3084,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,7 +3110,9 @@
       <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36">
+        <v>44359</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>63</v>
       </c>
@@ -3152,7 +3156,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3183,7 +3187,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3212,7 +3216,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3270,7 +3274,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3299,7 +3303,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3328,7 +3332,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3359,7 +3363,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3417,7 +3421,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3450,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4677,13 +4681,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4695,6 +4692,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4705,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4738,43 +4742,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -4819,58 +4823,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -4895,23 +4899,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4921,7 +4925,9 @@
       <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36">
+        <v>44359</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -4959,7 +4965,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4974,7 +4980,9 @@
       <c r="B7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="36">
+        <v>44359</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>67</v>
       </c>
@@ -5014,7 +5022,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5027,7 +5035,9 @@
       <c r="B8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="36">
+        <v>44359</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
@@ -5069,7 +5079,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5082,7 +5092,9 @@
       <c r="B9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="36">
+        <v>44359</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
@@ -5122,7 +5134,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5135,7 +5147,9 @@
       <c r="B10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="36">
+        <v>44359</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
@@ -5177,7 +5191,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5190,7 +5204,9 @@
       <c r="B11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="36">
+        <v>44359</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
@@ -5230,7 +5246,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5259,7 +5275,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5290,7 +5306,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5319,7 +5335,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5348,7 +5364,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5377,7 +5393,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6608,13 +6624,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6626,6 +6635,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6636,8 +6652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S8"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6669,43 +6685,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -6750,58 +6766,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6826,23 +6842,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6852,7 +6868,9 @@
       <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36">
+        <v>44359</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
@@ -6892,7 +6910,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6907,7 +6925,9 @@
       <c r="B7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="36">
+        <v>44359</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>68</v>
       </c>
@@ -6947,7 +6967,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6960,7 +6980,9 @@
       <c r="B8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="36">
+        <v>44359</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>68</v>
       </c>
@@ -7000,7 +7022,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7029,7 +7051,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7058,7 +7080,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7087,7 +7109,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7116,7 +7138,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7147,7 +7169,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7176,7 +7198,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7205,7 +7227,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7234,7 +7256,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8465,13 +8487,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8483,6 +8498,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8493,8 +8515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8526,43 +8548,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8607,58 +8629,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8683,23 +8705,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="70"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8709,7 +8731,9 @@
       <c r="B6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="36">
+        <v>44359</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -8751,7 +8775,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8766,7 +8790,9 @@
       <c r="B7" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="36">
+        <v>44359</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>63</v>
       </c>
@@ -8810,7 +8836,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8823,7 +8849,9 @@
       <c r="B8" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="36">
+        <v>44359</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
@@ -8861,7 +8889,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8874,7 +8902,9 @@
       <c r="B9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="36">
+        <v>44359</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
@@ -8914,7 +8944,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8927,7 +8957,9 @@
       <c r="B10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="36">
+        <v>44359</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
@@ -8969,7 +9001,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8982,7 +9014,9 @@
       <c r="B11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="36">
+        <v>44359</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
@@ -9022,7 +9056,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9035,7 +9069,9 @@
       <c r="B12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="36">
+        <v>44359</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>67</v>
       </c>
@@ -9077,7 +9113,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9092,7 +9128,9 @@
       <c r="B13" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="36">
+        <v>44359</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>67</v>
       </c>
@@ -9132,7 +9170,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9145,7 +9183,9 @@
       <c r="B14" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="36">
+        <v>44359</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>68</v>
       </c>
@@ -9185,7 +9225,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9198,7 +9238,9 @@
       <c r="B15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>44359</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>68</v>
       </c>
@@ -9238,7 +9280,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9251,7 +9293,9 @@
       <c r="B16" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="36">
+        <v>44359</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>68</v>
       </c>
@@ -9291,7 +9335,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10522,6 +10566,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10533,13 +10584,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="35" r:id="rId1"/>
@@ -736,22 +736,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +758,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -1195,58 +1195,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1271,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1372,7 +1372,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1548,7 +1548,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2866,6 +2866,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2877,13 +2884,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2927,43 +2927,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -3008,58 +3008,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3084,23 +3084,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3187,7 +3187,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3363,7 +3363,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4681,6 +4681,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4692,13 +4699,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4709,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -4742,43 +4742,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -4823,58 +4823,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -4899,23 +4899,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5306,7 +5306,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5364,7 +5364,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6624,6 +6624,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6635,13 +6642,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6652,7 +6652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6685,43 +6685,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="52"/>
@@ -6766,58 +6766,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6842,23 +6842,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7080,7 +7080,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7169,7 +7169,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8487,6 +8487,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8498,13 +8505,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8548,43 +8548,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8629,58 +8629,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8705,23 +8705,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10566,13 +10566,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10584,6 +10577,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
